--- a/wi_library_directory_geo_reg.xlsx
+++ b/wi_library_directory_geo_reg.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdrex\PycharmProjects\wilib_vrp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FC2FB3E2-2663-4DDC-B8C3-3166F420A8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACE227E6-E2FD-4484-ABE5-488EFEB91AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="wi_library_directory_geo_reg" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">wi_library_directory_geo_reg!$A$1:$AS$627</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9786" uniqueCount="3347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9785" uniqueCount="3347">
   <si>
     <t>LIBID</t>
   </si>
@@ -289,7 +286,7 @@
     <t>Janesville</t>
   </si>
   <si>
-    <t>(42.59268369999999, -89.01494579999999)</t>
+    <t>(42.5930027, -89.01643949999999)</t>
   </si>
   <si>
     <t>WI0061</t>
@@ -697,7 +694,7 @@
     <t>Menomonee Falls</t>
   </si>
   <si>
-    <t>(43.1713108, -88.10153969999999)</t>
+    <t>(43.1712771, -88.10152389999999)</t>
   </si>
   <si>
     <t>WI0396</t>
@@ -904,7 +901,7 @@
     <t>Wisconsin</t>
   </si>
   <si>
-    <t>(43.0087023, -88.2328063)</t>
+    <t>(43.009035, -88.23285399999999)</t>
   </si>
   <si>
     <t>WI0352</t>
@@ -2449,7 +2446,7 @@
     <t>Cleveland</t>
   </si>
   <si>
-    <t>(43.9243418, -87.7524912)</t>
+    <t>(43.9235161, -87.75794690000001)</t>
   </si>
   <si>
     <t>WI0179</t>
@@ -2617,7 +2614,7 @@
     <t>Greenfield</t>
   </si>
   <si>
-    <t>(42.96020650000001, -87.9803065)</t>
+    <t>(42.9606245, -87.9811368)</t>
   </si>
   <si>
     <t>WI0126</t>
@@ -3268,60 +3265,60 @@
     <t>Forest</t>
   </si>
   <si>
+    <t>Glenbeulah</t>
+  </si>
+  <si>
+    <t>(43.7196574, -88.14973239999999)</t>
+  </si>
+  <si>
+    <t>WI0150</t>
+  </si>
+  <si>
+    <t>Kewaskum PL</t>
+  </si>
+  <si>
+    <t>Kewaskum Public Library</t>
+  </si>
+  <si>
+    <t>Kewaskum</t>
+  </si>
+  <si>
+    <t>(43.5219431, -88.22728239999999)</t>
+  </si>
+  <si>
+    <t>WI0155</t>
+  </si>
+  <si>
+    <t>Kohler PL</t>
+  </si>
+  <si>
+    <t>Kohler Public Library</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Kohler</t>
+  </si>
+  <si>
+    <t>(43.7403846, -87.78547069999999)</t>
+  </si>
+  <si>
+    <t>ACAD0080</t>
+  </si>
+  <si>
+    <t>Lakeland University</t>
+  </si>
+  <si>
+    <t>Lakeland College</t>
+  </si>
+  <si>
+    <t>W3718</t>
+  </si>
+  <si>
     <t>Plymouth</t>
   </si>
   <si>
-    <t>PVF2+C8 Plymouth, Wisconsin</t>
-  </si>
-  <si>
-    <t>(43.7235625, -90.1491875)</t>
-  </si>
-  <si>
-    <t>WI0150</t>
-  </si>
-  <si>
-    <t>Kewaskum PL</t>
-  </si>
-  <si>
-    <t>Kewaskum Public Library</t>
-  </si>
-  <si>
-    <t>Kewaskum</t>
-  </si>
-  <si>
-    <t>(43.5219431, -88.22728239999999)</t>
-  </si>
-  <si>
-    <t>WI0155</t>
-  </si>
-  <si>
-    <t>Kohler PL</t>
-  </si>
-  <si>
-    <t>Kohler Public Library</t>
-  </si>
-  <si>
-    <t>Upper</t>
-  </si>
-  <si>
-    <t>Kohler</t>
-  </si>
-  <si>
-    <t>(43.7403846, -87.78547069999999)</t>
-  </si>
-  <si>
-    <t>ACAD0080</t>
-  </si>
-  <si>
-    <t>Lakeland University</t>
-  </si>
-  <si>
-    <t>Lakeland College</t>
-  </si>
-  <si>
-    <t>W3718</t>
-  </si>
-  <si>
     <t>R4R8+JJ Plymouth, Wisconsin</t>
   </si>
   <si>
@@ -4333,7 +4330,7 @@
     <t>8FWX+78 Solon Springs, Wisconsin</t>
   </si>
   <si>
-    <t>(46.3456875, -91.5016875)</t>
+    <t>(46.3532743, -91.8224113)</t>
   </si>
   <si>
     <t>WI0021</t>
@@ -5716,7 +5713,7 @@
     <t>Edgewood College</t>
   </si>
   <si>
-    <t>(43.0571112, -89.42286)</t>
+    <t>(43.0569625, -89.4228761)</t>
   </si>
   <si>
     <t>WI0424</t>
@@ -6229,7 +6226,7 @@
     <t>71st</t>
   </si>
   <si>
-    <t>(43.0194295, -88.00098249999999)</t>
+    <t>(43.019317, -88.000889)</t>
   </si>
   <si>
     <t>WIGOV210</t>
@@ -6394,7 +6391,7 @@
     <t>Northeast Wisconsin Technical College</t>
   </si>
   <si>
-    <t>(44.5273237, -88.1073138)</t>
+    <t>(44.5272774, -88.1072466)</t>
   </si>
   <si>
     <t>WIGOV230</t>
@@ -6766,7 +6763,7 @@
     <t>Spring Green</t>
   </si>
   <si>
-    <t>(43.177667, -90.0661629)</t>
+    <t>(43.1776863, -90.0661734)</t>
   </si>
   <si>
     <t>ACAD0190</t>
@@ -6835,7 +6832,7 @@
     <t>Connie</t>
   </si>
   <si>
-    <t>(43.482892, -89.7632206)</t>
+    <t>(43.483113, -89.7609481)</t>
   </si>
   <si>
     <t>UWSYS120</t>
@@ -6901,7 +6898,7 @@
     <t>Winnebago</t>
   </si>
   <si>
-    <t>(44.2311016, -88.415622)</t>
+    <t>(44.2309536, -88.4152769)</t>
   </si>
   <si>
     <t>UWSYS160</t>
@@ -7423,7 +7420,7 @@
     <t>Winnebago Mental Health Institute</t>
   </si>
   <si>
-    <t>(44.0744919, -88.5184175)</t>
+    <t>(44.0747191, -88.5183053)</t>
   </si>
   <si>
     <t>WIGOV330</t>
@@ -8023,7 +8020,7 @@
     <t>Lake Shore</t>
   </si>
   <si>
-    <t>(43.2533565, -87.91547010000001)</t>
+    <t>(43.2524974, -87.9160892)</t>
   </si>
   <si>
     <t>ACAD0130</t>
@@ -8071,7 +8068,7 @@
     <t>Lovers Lane</t>
   </si>
   <si>
-    <t>(42.91039689999999, -88.0439043)</t>
+    <t>(42.9103833, -88.04479049999999)</t>
   </si>
   <si>
     <t>ACAD0180</t>
@@ -8374,7 +8371,7 @@
     <t>Holmen</t>
   </si>
   <si>
-    <t>(43.9722596, -91.277862)</t>
+    <t>(43.9721668, -91.2772179)</t>
   </si>
   <si>
     <t>WI0140</t>
@@ -8440,7 +8437,7 @@
     <t>La Farge</t>
   </si>
   <si>
-    <t>(43.5791852, -90.6392221)</t>
+    <t>(43.5792632, -90.6387037)</t>
   </si>
   <si>
     <t>WI0161</t>
@@ -8671,7 +8668,7 @@
     <t>New Lisbon</t>
   </si>
   <si>
-    <t>(43.8810505, -90.1315838)</t>
+    <t>(43.8808984, -90.1340695)</t>
   </si>
   <si>
     <t>WI0221</t>
@@ -9184,7 +9181,7 @@
     <t>Neshkoro</t>
   </si>
   <si>
-    <t>(43.9625986, -89.21835829999999)</t>
+    <t>(43.9625806, -89.21845119999999)</t>
   </si>
   <si>
     <t>WI0224</t>
@@ -10904,39 +10901,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AS627"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="A286" sqref="A286"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="Q181" sqref="Q181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="39.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.6328125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -11075,7 +11046,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -11188,7 +11159,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -11295,7 +11266,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -11408,7 +11379,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -11500,7 +11471,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -11538,10 +11509,10 @@
         <v>56</v>
       </c>
       <c r="P6">
-        <v>42.592683699999903</v>
+        <v>42.5930027</v>
       </c>
       <c r="Q6">
-        <v>-89.014945799999893</v>
+        <v>-89.016439499999905</v>
       </c>
       <c r="S6" t="s">
         <v>47</v>
@@ -11589,7 +11560,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -11702,7 +11673,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -11815,7 +11786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -11931,7 +11902,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -12023,7 +11994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -12139,7 +12110,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -12231,7 +12202,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -12347,7 +12318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -12466,7 +12437,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>132</v>
       </c>
@@ -12582,7 +12553,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -12674,7 +12645,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>142</v>
       </c>
@@ -12787,7 +12758,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>153</v>
       </c>
@@ -12906,7 +12877,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>159</v>
       </c>
@@ -13022,7 +12993,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>166</v>
       </c>
@@ -13138,7 +13109,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>172</v>
       </c>
@@ -13251,7 +13222,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>178</v>
       </c>
@@ -13367,7 +13338,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -13480,7 +13451,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>189</v>
       </c>
@@ -13593,7 +13564,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>196</v>
       </c>
@@ -13709,7 +13680,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>202</v>
       </c>
@@ -13825,7 +13796,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>206</v>
       </c>
@@ -13938,7 +13909,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>212</v>
       </c>
@@ -14054,7 +14025,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>218</v>
       </c>
@@ -14092,10 +14063,10 @@
         <v>148</v>
       </c>
       <c r="P29">
-        <v>43.171310800000001</v>
+        <v>43.171277099999998</v>
       </c>
       <c r="Q29">
-        <v>-88.101539699999904</v>
+        <v>-88.101523899999904</v>
       </c>
       <c r="S29" t="s">
         <v>149</v>
@@ -14167,7 +14138,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>225</v>
       </c>
@@ -14280,7 +14251,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>231</v>
       </c>
@@ -14393,7 +14364,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>237</v>
       </c>
@@ -14506,7 +14477,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>244</v>
       </c>
@@ -14616,7 +14587,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>251</v>
       </c>
@@ -14732,7 +14703,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>257</v>
       </c>
@@ -14848,7 +14819,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>262</v>
       </c>
@@ -14961,7 +14932,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>267</v>
       </c>
@@ -15074,7 +15045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>273</v>
       </c>
@@ -15190,7 +15161,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>279</v>
       </c>
@@ -15306,7 +15277,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>285</v>
       </c>
@@ -15419,7 +15390,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>289</v>
       </c>
@@ -15457,10 +15428,10 @@
         <v>148</v>
       </c>
       <c r="P41">
-        <v>43.008702300000003</v>
+        <v>43.009034999999997</v>
       </c>
       <c r="Q41">
-        <v>-88.232806299999993</v>
+        <v>-88.232853999999904</v>
       </c>
       <c r="S41" t="s">
         <v>149</v>
@@ -15532,7 +15503,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>294</v>
       </c>
@@ -19749,7 +19720,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="82" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>527</v>
       </c>
@@ -19954,7 +19925,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="84" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>543</v>
       </c>
@@ -20171,7 +20142,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="86" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>552</v>
       </c>
@@ -21645,7 +21616,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="100" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>634</v>
       </c>
@@ -21749,7 +21720,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>643</v>
       </c>
@@ -21838,7 +21809,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>648</v>
       </c>
@@ -21957,7 +21928,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>653</v>
       </c>
@@ -22076,7 +22047,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>659</v>
       </c>
@@ -22195,7 +22166,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="105" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>662</v>
       </c>
@@ -22308,7 +22279,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>667</v>
       </c>
@@ -22415,7 +22386,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>671</v>
       </c>
@@ -22504,7 +22475,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>674</v>
       </c>
@@ -22623,7 +22594,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>680</v>
       </c>
@@ -22715,7 +22686,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>685</v>
       </c>
@@ -22831,7 +22802,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>693</v>
       </c>
@@ -22944,7 +22915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>699</v>
       </c>
@@ -23060,7 +23031,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>704</v>
       </c>
@@ -23173,7 +23144,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>710</v>
       </c>
@@ -23289,7 +23260,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>715</v>
       </c>
@@ -23402,7 +23373,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>720</v>
       </c>
@@ -23515,7 +23486,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>726</v>
       </c>
@@ -23631,7 +23602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>731</v>
       </c>
@@ -23741,7 +23712,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>737</v>
       </c>
@@ -23854,7 +23825,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>742</v>
       </c>
@@ -23943,7 +23914,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>745</v>
       </c>
@@ -24059,7 +24030,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>751</v>
       </c>
@@ -24172,7 +24143,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>757</v>
       </c>
@@ -24285,7 +24256,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>762</v>
       </c>
@@ -24401,7 +24372,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>767</v>
       </c>
@@ -24517,7 +24488,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>771</v>
       </c>
@@ -24612,7 +24583,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>776</v>
       </c>
@@ -24728,7 +24699,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="128" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>782</v>
       </c>
@@ -24844,7 +24815,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="129" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>792</v>
       </c>
@@ -24957,7 +24928,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="130" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>797</v>
       </c>
@@ -25070,7 +25041,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="131" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>803</v>
       </c>
@@ -25108,10 +25079,10 @@
         <v>801</v>
       </c>
       <c r="P131">
-        <v>43.924341800000001</v>
+        <v>43.923516100000001</v>
       </c>
       <c r="Q131">
-        <v>-87.752491199999994</v>
+        <v>-87.757946899999993</v>
       </c>
       <c r="S131" t="s">
         <v>787</v>
@@ -25159,7 +25130,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="132" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>809</v>
       </c>
@@ -25272,7 +25243,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="133" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>814</v>
       </c>
@@ -25379,7 +25350,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="134" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>816</v>
       </c>
@@ -25492,7 +25463,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="135" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>821</v>
       </c>
@@ -25605,7 +25576,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="136" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>827</v>
       </c>
@@ -25721,7 +25692,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>836</v>
       </c>
@@ -25834,7 +25805,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>841</v>
       </c>
@@ -25950,7 +25921,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>847</v>
       </c>
@@ -26066,7 +26037,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>853</v>
       </c>
@@ -26179,7 +26150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>859</v>
       </c>
@@ -26220,10 +26191,10 @@
         <v>832</v>
       </c>
       <c r="P141">
-        <v>42.960206499999998</v>
+        <v>42.960624500000002</v>
       </c>
       <c r="Q141">
-        <v>-87.980306499999998</v>
+        <v>-87.981136800000002</v>
       </c>
       <c r="S141" t="s">
         <v>833</v>
@@ -26295,7 +26266,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>865</v>
       </c>
@@ -26411,7 +26382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="143" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>871</v>
       </c>
@@ -26521,7 +26492,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>875</v>
       </c>
@@ -26619,7 +26590,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>879</v>
       </c>
@@ -26735,7 +26706,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="146" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>884</v>
       </c>
@@ -26851,7 +26822,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="147" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>889</v>
       </c>
@@ -26967,7 +26938,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>894</v>
       </c>
@@ -27083,7 +27054,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>899</v>
       </c>
@@ -27199,7 +27170,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>904</v>
       </c>
@@ -27315,7 +27286,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="151" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>909</v>
       </c>
@@ -27431,7 +27402,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="152" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>914</v>
       </c>
@@ -27547,7 +27518,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>917</v>
       </c>
@@ -27663,7 +27634,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="154" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>922</v>
       </c>
@@ -27779,7 +27750,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>927</v>
       </c>
@@ -27895,7 +27866,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>932</v>
       </c>
@@ -28011,7 +27982,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>937</v>
       </c>
@@ -28127,7 +28098,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>942</v>
       </c>
@@ -28243,7 +28214,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="159" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>948</v>
       </c>
@@ -28359,7 +28330,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="160" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>954</v>
       </c>
@@ -28472,7 +28443,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="161" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>960</v>
       </c>
@@ -28588,7 +28559,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>966</v>
       </c>
@@ -28704,7 +28675,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>971</v>
       </c>
@@ -28820,7 +28791,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="164" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>977</v>
       </c>
@@ -28936,7 +28907,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="165" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>983</v>
       </c>
@@ -29028,7 +28999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="166" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>988</v>
       </c>
@@ -29144,7 +29115,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="167" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>996</v>
       </c>
@@ -29257,7 +29228,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="168" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>1001</v>
       </c>
@@ -29370,7 +29341,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="169" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>1008</v>
       </c>
@@ -29483,7 +29454,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="170" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>1016</v>
       </c>
@@ -29599,7 +29570,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="171" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>1021</v>
       </c>
@@ -29712,7 +29683,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="172" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>1026</v>
       </c>
@@ -29801,7 +29772,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="173" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>1033</v>
       </c>
@@ -29917,7 +29888,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="174" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>1038</v>
       </c>
@@ -30030,7 +30001,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="175" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>1045</v>
       </c>
@@ -30143,7 +30114,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="176" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>1051</v>
       </c>
@@ -30256,7 +30227,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="177" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>1056</v>
       </c>
@@ -30372,7 +30343,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="178" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>1061</v>
       </c>
@@ -30488,7 +30459,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="179" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>1066</v>
       </c>
@@ -30601,7 +30572,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="180" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>1071</v>
       </c>
@@ -30717,7 +30688,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="181" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>1076</v>
       </c>
@@ -30755,13 +30726,10 @@
         <v>1006</v>
       </c>
       <c r="P181">
-        <v>43.7235625</v>
+        <v>43.719657400000003</v>
       </c>
       <c r="Q181">
-        <v>-90.149187499999996</v>
-      </c>
-      <c r="R181" t="s">
-        <v>1082</v>
+        <v>-88.149732399999905</v>
       </c>
       <c r="S181" t="s">
         <v>993</v>
@@ -30800,7 +30768,7 @@
         <v>1</v>
       </c>
       <c r="AQ181" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AR181" t="s">
         <v>790</v>
@@ -30809,15 +30777,15 @@
         <v>791</v>
       </c>
     </row>
-    <row r="182" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B182" t="s">
         <v>1084</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>1085</v>
-      </c>
-      <c r="C182" t="s">
-        <v>1086</v>
       </c>
       <c r="D182" t="s">
         <v>70</v>
@@ -30832,7 +30800,7 @@
         <v>51</v>
       </c>
       <c r="K182" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="L182" t="s">
         <v>54</v>
@@ -30913,7 +30881,7 @@
         <v>1</v>
       </c>
       <c r="AQ182" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AR182" t="s">
         <v>790</v>
@@ -30922,15 +30890,15 @@
         <v>791</v>
       </c>
     </row>
-    <row r="183" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B183" t="s">
         <v>1089</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>1090</v>
-      </c>
-      <c r="C183" t="s">
-        <v>1091</v>
       </c>
       <c r="D183" t="s">
         <v>70</v>
@@ -30939,13 +30907,13 @@
         <v>333</v>
       </c>
       <c r="G183" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H183" t="s">
         <v>163</v>
       </c>
       <c r="K183" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="L183" t="s">
         <v>54</v>
@@ -31026,7 +30994,7 @@
         <v>1</v>
       </c>
       <c r="AQ183" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AR183" t="s">
         <v>790</v>
@@ -31035,21 +31003,21 @@
         <v>791</v>
       </c>
     </row>
-    <row r="184" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B184" t="s">
         <v>1095</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>1096</v>
-      </c>
-      <c r="C184" t="s">
-        <v>1097</v>
       </c>
       <c r="D184" t="s">
         <v>63</v>
       </c>
       <c r="E184" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G184" t="s">
         <v>254</v>
@@ -31058,7 +31026,7 @@
         <v>616</v>
       </c>
       <c r="K184" t="s">
-        <v>1081</v>
+        <v>1098</v>
       </c>
       <c r="L184" t="s">
         <v>54</v>
@@ -31151,7 +31119,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="185" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>1101</v>
       </c>
@@ -31267,7 +31235,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="186" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>1106</v>
       </c>
@@ -31383,7 +31351,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="187" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>1111</v>
       </c>
@@ -31499,7 +31467,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="188" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>1115</v>
       </c>
@@ -31609,7 +31577,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="189" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>1119</v>
       </c>
@@ -31725,7 +31693,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="190" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>1124</v>
       </c>
@@ -31748,7 +31716,7 @@
         <v>51</v>
       </c>
       <c r="K190" t="s">
-        <v>1081</v>
+        <v>1098</v>
       </c>
       <c r="L190" t="s">
         <v>54</v>
@@ -31838,7 +31806,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="191" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>1128</v>
       </c>
@@ -31954,7 +31922,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="192" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>1132</v>
       </c>
@@ -32067,7 +32035,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="193" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>1137</v>
       </c>
@@ -32183,7 +32151,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="194" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>1142</v>
       </c>
@@ -32299,7 +32267,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="195" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>1147</v>
       </c>
@@ -32412,7 +32380,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="196" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>1153</v>
       </c>
@@ -32528,7 +32496,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="197" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>1157</v>
       </c>
@@ -32641,7 +32609,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="198" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>1162</v>
       </c>
@@ -32754,7 +32722,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="199" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>1167</v>
       </c>
@@ -32846,7 +32814,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="200" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>1171</v>
       </c>
@@ -32962,7 +32930,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="201" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>1175</v>
       </c>
@@ -33075,7 +33043,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="202" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>1181</v>
       </c>
@@ -33194,7 +33162,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="203" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>1192</v>
       </c>
@@ -33283,7 +33251,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="204" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>1198</v>
       </c>
@@ -33402,7 +33370,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="205" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>1203</v>
       </c>
@@ -33512,7 +33480,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="206" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>1209</v>
       </c>
@@ -33631,7 +33599,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="207" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>1212</v>
       </c>
@@ -33744,7 +33712,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="208" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>1215</v>
       </c>
@@ -33863,7 +33831,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="209" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>1221</v>
       </c>
@@ -33985,7 +33953,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="210" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>1226</v>
       </c>
@@ -34104,7 +34072,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="211" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>1230</v>
       </c>
@@ -34223,7 +34191,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="212" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>1235</v>
       </c>
@@ -34330,7 +34298,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="213" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>1240</v>
       </c>
@@ -34422,7 +34390,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="214" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>1247</v>
       </c>
@@ -34514,7 +34482,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="215" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>1252</v>
       </c>
@@ -34624,7 +34592,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="216" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>1258</v>
       </c>
@@ -34719,7 +34687,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="217" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>1263</v>
       </c>
@@ -34829,7 +34797,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="218" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>1268</v>
       </c>
@@ -34936,7 +34904,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="219" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>1273</v>
       </c>
@@ -35058,7 +35026,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="220" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>1278</v>
       </c>
@@ -35165,7 +35133,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="221" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>1283</v>
       </c>
@@ -35284,7 +35252,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="222" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>1289</v>
       </c>
@@ -35394,7 +35362,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="223" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>1295</v>
       </c>
@@ -35483,7 +35451,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="224" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>1304</v>
       </c>
@@ -35602,7 +35570,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="225" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>1308</v>
       </c>
@@ -35712,7 +35680,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="226" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>1314</v>
       </c>
@@ -35822,7 +35790,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="227" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>1319</v>
       </c>
@@ -35926,7 +35894,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="228" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>1325</v>
       </c>
@@ -36033,7 +36001,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="229" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>1331</v>
       </c>
@@ -36134,7 +36102,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="230" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>1338</v>
       </c>
@@ -36247,7 +36215,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="231" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>1343</v>
       </c>
@@ -36354,7 +36322,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="232" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>1349</v>
       </c>
@@ -36455,7 +36423,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="233" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>1355</v>
       </c>
@@ -36556,7 +36524,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="234" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>1360</v>
       </c>
@@ -36672,7 +36640,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="235" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>1365</v>
       </c>
@@ -36788,7 +36756,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="236" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>1370</v>
       </c>
@@ -36901,7 +36869,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="237" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>1374</v>
       </c>
@@ -36990,7 +36958,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="238" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>1380</v>
       </c>
@@ -37082,7 +37050,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="239" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>1386</v>
       </c>
@@ -37201,7 +37169,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="240" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>1391</v>
       </c>
@@ -37311,7 +37279,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="241" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>1396</v>
       </c>
@@ -37400,7 +37368,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="242" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>1402</v>
       </c>
@@ -37522,7 +37490,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="243" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>1405</v>
       </c>
@@ -37635,7 +37603,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="244" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>1411</v>
       </c>
@@ -37745,7 +37713,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="245" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>1416</v>
       </c>
@@ -38000,10 +37968,10 @@
         <v>1434</v>
       </c>
       <c r="P247">
-        <v>46.345687499999997</v>
+        <v>46.353274300000002</v>
       </c>
       <c r="Q247">
-        <v>-91.501687500000003</v>
+        <v>-91.822411299999999</v>
       </c>
       <c r="R247" t="s">
         <v>1435</v>
@@ -38244,7 +38212,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="250" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>1446</v>
       </c>
@@ -38707,7 +38675,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="255" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>1474</v>
       </c>
@@ -39188,7 +39156,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="260" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>1502</v>
       </c>
@@ -39586,7 +39554,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="264" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>1525</v>
       </c>
@@ -39684,7 +39652,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="265" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>1532</v>
       </c>
@@ -39782,7 +39750,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="266" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>1538</v>
       </c>
@@ -40064,7 +40032,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="269" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>1554</v>
       </c>
@@ -40367,7 +40335,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="272" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>1571</v>
       </c>
@@ -40637,7 +40605,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="275" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>1585</v>
       </c>
@@ -40738,7 +40706,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="276" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>1591</v>
       </c>
@@ -41786,7 +41754,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="287" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>1643</v>
       </c>
@@ -41982,7 +41950,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="289" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>1653</v>
       </c>
@@ -42098,7 +42066,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="290" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>1661</v>
       </c>
@@ -42214,7 +42182,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="291" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>1666</v>
       </c>
@@ -42327,7 +42295,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="292" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>1673</v>
       </c>
@@ -42443,7 +42411,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="293" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>1679</v>
       </c>
@@ -42559,7 +42527,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="294" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>1685</v>
       </c>
@@ -42675,7 +42643,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="295" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>1690</v>
       </c>
@@ -42791,7 +42759,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="296" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>1696</v>
       </c>
@@ -42907,7 +42875,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="297" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>1701</v>
       </c>
@@ -43020,7 +42988,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="298" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>1706</v>
       </c>
@@ -43136,7 +43104,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="299" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>1712</v>
       </c>
@@ -43252,7 +43220,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="300" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>1717</v>
       </c>
@@ -43368,7 +43336,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="301" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>1723</v>
       </c>
@@ -43478,7 +43446,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="302" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>1725</v>
       </c>
@@ -43594,7 +43562,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="303" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>1730</v>
       </c>
@@ -43710,7 +43678,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="304" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>1735</v>
       </c>
@@ -43823,7 +43791,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="305" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>1741</v>
       </c>
@@ -43939,7 +43907,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="306" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>1745</v>
       </c>
@@ -44055,7 +44023,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="307" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>1750</v>
       </c>
@@ -44174,7 +44142,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="308" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>1759</v>
       </c>
@@ -44290,7 +44258,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="309" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>1765</v>
       </c>
@@ -44394,7 +44362,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="310" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>1771</v>
       </c>
@@ -44507,7 +44475,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="311" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>1778</v>
       </c>
@@ -44605,7 +44573,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="312" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>1785</v>
       </c>
@@ -44718,7 +44686,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="313" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>1791</v>
       </c>
@@ -44834,7 +44802,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="314" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>1796</v>
       </c>
@@ -44947,7 +44915,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="315" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>1802</v>
       </c>
@@ -45060,7 +45028,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="316" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>1808</v>
       </c>
@@ -45173,7 +45141,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="317" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>1812</v>
       </c>
@@ -45289,7 +45257,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="318" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>1819</v>
       </c>
@@ -45402,7 +45370,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="319" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>1826</v>
       </c>
@@ -45515,7 +45483,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="320" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>1831</v>
       </c>
@@ -45625,7 +45593,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="321" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>1836</v>
       </c>
@@ -45717,7 +45685,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="322" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>1840</v>
       </c>
@@ -45913,7 +45881,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="324" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>1849</v>
       </c>
@@ -46029,7 +45997,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="325" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>1853</v>
       </c>
@@ -46145,7 +46113,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="326" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>1859</v>
       </c>
@@ -46258,7 +46226,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="327" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>1865</v>
       </c>
@@ -46374,7 +46342,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="328" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>1870</v>
       </c>
@@ -46490,7 +46458,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="329" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>1876</v>
       </c>
@@ -46609,7 +46577,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="330" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>1881</v>
       </c>
@@ -46698,7 +46666,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="331" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>1886</v>
       </c>
@@ -46796,7 +46764,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="332" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>1890</v>
       </c>
@@ -46909,7 +46877,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="333" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>1895</v>
       </c>
@@ -46947,10 +46915,10 @@
         <v>1776</v>
       </c>
       <c r="P333">
-        <v>43.057111200000001</v>
+        <v>43.056962499999997</v>
       </c>
       <c r="Q333">
-        <v>-89.42286</v>
+        <v>-89.422876099999996</v>
       </c>
       <c r="S333" t="s">
         <v>1754</v>
@@ -47022,7 +46990,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="334" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>1898</v>
       </c>
@@ -47141,7 +47109,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="335" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>1904</v>
       </c>
@@ -47248,7 +47216,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="336" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>1910</v>
       </c>
@@ -47364,7 +47332,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="337" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>1915</v>
       </c>
@@ -47459,7 +47427,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="338" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>1920</v>
       </c>
@@ -47575,7 +47543,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="339" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>1923</v>
       </c>
@@ -47670,7 +47638,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="340" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>1927</v>
       </c>
@@ -47783,7 +47751,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="341" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>1931</v>
       </c>
@@ -47899,7 +47867,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="342" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>1936</v>
       </c>
@@ -48012,7 +47980,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="343" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>1942</v>
       </c>
@@ -48122,7 +48090,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="344" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>1946</v>
       </c>
@@ -48235,7 +48203,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="345" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>1951</v>
       </c>
@@ -48348,7 +48316,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="346" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>1956</v>
       </c>
@@ -48449,7 +48417,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="347" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>1961</v>
       </c>
@@ -48571,7 +48539,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="348" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>1966</v>
       </c>
@@ -48693,7 +48661,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="349" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>1971</v>
       </c>
@@ -48815,7 +48783,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="350" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>1975</v>
       </c>
@@ -48937,7 +48905,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="351" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>1979</v>
       </c>
@@ -49056,7 +49024,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="352" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>1984</v>
       </c>
@@ -49175,7 +49143,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="353" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>1988</v>
       </c>
@@ -49294,7 +49262,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="354" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>1993</v>
       </c>
@@ -49413,7 +49381,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="355" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>1998</v>
       </c>
@@ -49535,7 +49503,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="356" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>2002</v>
       </c>
@@ -49642,7 +49610,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="357" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>2006</v>
       </c>
@@ -49752,7 +49720,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="358" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>2009</v>
       </c>
@@ -49865,7 +49833,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="359" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>2013</v>
       </c>
@@ -49981,7 +49949,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="360" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>2018</v>
       </c>
@@ -50094,7 +50062,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="361" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>2023</v>
       </c>
@@ -50213,7 +50181,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="362" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>2028</v>
       </c>
@@ -50305,7 +50273,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="363" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>2033</v>
       </c>
@@ -50403,7 +50371,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="364" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>2038</v>
       </c>
@@ -50519,7 +50487,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="365" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>2043</v>
       </c>
@@ -50635,7 +50603,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="366" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>2046</v>
       </c>
@@ -50736,7 +50704,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="367" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>2053</v>
       </c>
@@ -50855,7 +50823,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="368" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>2059</v>
       </c>
@@ -50968,7 +50936,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="369" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>2064</v>
       </c>
@@ -51009,10 +50977,10 @@
         <v>832</v>
       </c>
       <c r="P369">
-        <v>43.019429500000001</v>
+        <v>43.019317000000001</v>
       </c>
       <c r="Q369">
-        <v>-88.000982499999907</v>
+        <v>-88.000889000000001</v>
       </c>
       <c r="S369" t="s">
         <v>1754</v>
@@ -51078,7 +51046,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="370" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>2069</v>
       </c>
@@ -51173,7 +51141,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="371" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>2074</v>
       </c>
@@ -51292,7 +51260,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="372" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>2080</v>
       </c>
@@ -51405,7 +51373,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="373" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>2085</v>
       </c>
@@ -51521,7 +51489,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="374" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>2090</v>
       </c>
@@ -51619,7 +51587,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="375" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>2094</v>
       </c>
@@ -51738,7 +51706,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="376" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>2100</v>
       </c>
@@ -51842,7 +51810,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="377" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>2105</v>
       </c>
@@ -51943,7 +51911,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="378" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>2110</v>
       </c>
@@ -52056,7 +52024,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="379" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>2115</v>
       </c>
@@ -52172,7 +52140,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="380" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>2120</v>
       </c>
@@ -52213,10 +52181,10 @@
         <v>1196</v>
       </c>
       <c r="P380">
-        <v>44.527323699999997</v>
+        <v>44.527277400000003</v>
       </c>
       <c r="Q380">
-        <v>-88.1073138</v>
+        <v>-88.107246599999996</v>
       </c>
       <c r="S380" t="s">
         <v>1754</v>
@@ -52276,7 +52244,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="381" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>2124</v>
       </c>
@@ -52371,7 +52339,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="382" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>2131</v>
       </c>
@@ -52490,7 +52458,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="383" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>2136</v>
       </c>
@@ -52606,7 +52574,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="384" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>2141</v>
       </c>
@@ -52707,7 +52675,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="385" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>2146</v>
       </c>
@@ -52820,7 +52788,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="386" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>2150</v>
       </c>
@@ -52936,7 +52904,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="387" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>2154</v>
       </c>
@@ -53037,7 +53005,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="388" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>2159</v>
       </c>
@@ -53150,7 +53118,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="389" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>2164</v>
       </c>
@@ -53254,7 +53222,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="390" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>2169</v>
       </c>
@@ -53367,7 +53335,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="391" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>2174</v>
       </c>
@@ -53483,7 +53451,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="392" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>2179</v>
       </c>
@@ -53596,7 +53564,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="393" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>2184</v>
       </c>
@@ -53712,7 +53680,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="394" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>2189</v>
       </c>
@@ -53825,7 +53793,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="395" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>2195</v>
       </c>
@@ -53935,7 +53903,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="396" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>2201</v>
       </c>
@@ -54042,7 +54010,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="397" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>2207</v>
       </c>
@@ -54134,7 +54102,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="398" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>2211</v>
       </c>
@@ -54250,7 +54218,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="399" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>2216</v>
       </c>
@@ -54363,7 +54331,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="400" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>2221</v>
       </c>
@@ -54458,7 +54426,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="401" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>2226</v>
       </c>
@@ -54571,7 +54539,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="402" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>2231</v>
       </c>
@@ -54684,7 +54652,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="403" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>2235</v>
       </c>
@@ -54779,7 +54747,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="404" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>2239</v>
       </c>
@@ -54877,7 +54845,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="405" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>2243</v>
       </c>
@@ -54918,10 +54886,10 @@
         <v>1789</v>
       </c>
       <c r="P405">
-        <v>43.177667</v>
+        <v>43.177686299999998</v>
       </c>
       <c r="Q405">
-        <v>-90.066162899999995</v>
+        <v>-90.066173399999997</v>
       </c>
       <c r="S405" t="s">
         <v>1754</v>
@@ -54993,7 +54961,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="406" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>2248</v>
       </c>
@@ -55100,7 +55068,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="407" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>2251</v>
       </c>
@@ -55213,7 +55181,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="408" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>2256</v>
       </c>
@@ -55335,7 +55303,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="409" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>2260</v>
       </c>
@@ -55454,7 +55422,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="410" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>2266</v>
       </c>
@@ -55492,10 +55460,10 @@
         <v>1789</v>
       </c>
       <c r="P410">
-        <v>43.482892</v>
+        <v>43.483113000000003</v>
       </c>
       <c r="Q410">
-        <v>-89.763220599999997</v>
+        <v>-89.760948099999993</v>
       </c>
       <c r="S410" t="s">
         <v>1754</v>
@@ -55900,7 +55868,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="414" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>2283</v>
       </c>
@@ -56010,7 +55978,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="415" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>2287</v>
       </c>
@@ -56048,10 +56016,10 @@
         <v>2291</v>
       </c>
       <c r="P415">
-        <v>44.231101600000002</v>
+        <v>44.230953599999999</v>
       </c>
       <c r="Q415">
-        <v>-88.415621999999999</v>
+        <v>-88.415276899999995</v>
       </c>
       <c r="S415" t="s">
         <v>1754</v>
@@ -56117,7 +56085,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="416" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>2293</v>
       </c>
@@ -56227,7 +56195,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="417" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>2298</v>
       </c>
@@ -56343,7 +56311,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="418" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>2300</v>
       </c>
@@ -56450,7 +56418,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="419" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>2305</v>
       </c>
@@ -56563,7 +56531,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="420" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>2307</v>
       </c>
@@ -56679,7 +56647,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="421" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>2310</v>
       </c>
@@ -56789,7 +56757,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="422" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>2315</v>
       </c>
@@ -56902,7 +56870,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="423" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>2319</v>
       </c>
@@ -57012,7 +56980,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="424" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>2322</v>
       </c>
@@ -57122,7 +57090,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="425" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>2325</v>
       </c>
@@ -57238,7 +57206,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="426" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>2327</v>
       </c>
@@ -57348,7 +57316,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="427" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>2332</v>
       </c>
@@ -57464,7 +57432,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="428" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>2334</v>
       </c>
@@ -57574,7 +57542,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="429" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>2338</v>
       </c>
@@ -57690,7 +57658,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="430" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>2340</v>
       </c>
@@ -57800,7 +57768,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="431" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>2346</v>
       </c>
@@ -57916,7 +57884,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="432" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>2350</v>
       </c>
@@ -58249,7 +58217,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="435" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>2363</v>
       </c>
@@ -58350,7 +58318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="436" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>2367</v>
       </c>
@@ -58460,7 +58428,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="437" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>2371</v>
       </c>
@@ -58567,7 +58535,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="438" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>2375</v>
       </c>
@@ -59129,7 +59097,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="443" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>2388</v>
       </c>
@@ -59239,7 +59207,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="444" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>2392</v>
       </c>
@@ -59349,7 +59317,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="445" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>2395</v>
       </c>
@@ -59465,7 +59433,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="446" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>2401</v>
       </c>
@@ -59578,7 +59546,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="447" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>2405</v>
       </c>
@@ -59697,7 +59665,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="448" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>2407</v>
       </c>
@@ -59816,7 +59784,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="449" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>2413</v>
       </c>
@@ -59929,7 +59897,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="450" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>2419</v>
       </c>
@@ -60030,7 +59998,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="451" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>2425</v>
       </c>
@@ -60128,7 +60096,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="452" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>2430</v>
       </c>
@@ -60250,7 +60218,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="453" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>2435</v>
       </c>
@@ -60363,7 +60331,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="454" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>2439</v>
       </c>
@@ -60479,7 +60447,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="455" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>2442</v>
       </c>
@@ -60580,7 +60548,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="456" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>2447</v>
       </c>
@@ -60693,7 +60661,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="457" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>2452</v>
       </c>
@@ -60782,7 +60750,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="458" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>2455</v>
       </c>
@@ -60898,7 +60866,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="459" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>2459</v>
       </c>
@@ -60987,7 +60955,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="460" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>2463</v>
       </c>
@@ -61025,10 +60993,10 @@
         <v>2291</v>
       </c>
       <c r="P460">
-        <v>44.074491899999998</v>
+        <v>44.074719100000003</v>
       </c>
       <c r="Q460">
-        <v>-88.518417499999998</v>
+        <v>-88.518305299999994</v>
       </c>
       <c r="S460" t="s">
         <v>1754</v>
@@ -61082,7 +61050,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="461" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>2467</v>
       </c>
@@ -61180,7 +61148,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="462" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>2472</v>
       </c>
@@ -61290,7 +61258,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="463" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>2477</v>
       </c>
@@ -61391,7 +61359,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="464" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>2485</v>
       </c>
@@ -61495,7 +61463,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="465" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>2492</v>
       </c>
@@ -61599,7 +61567,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="466" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>2498</v>
       </c>
@@ -61703,7 +61671,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="467" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>2503</v>
       </c>
@@ -61804,7 +61772,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="468" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>2508</v>
       </c>
@@ -61908,7 +61876,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="469" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>2515</v>
       </c>
@@ -62009,7 +61977,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="470" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>2520</v>
       </c>
@@ -62113,7 +62081,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="471" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>2526</v>
       </c>
@@ -62217,7 +62185,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="472" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>2531</v>
       </c>
@@ -62321,7 +62289,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="473" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>2536</v>
       </c>
@@ -62425,7 +62393,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="474" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>2542</v>
       </c>
@@ -62526,7 +62494,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="475" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>2547</v>
       </c>
@@ -62630,7 +62598,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="476" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>2552</v>
       </c>
@@ -62731,7 +62699,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="477" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>2557</v>
       </c>
@@ -62832,7 +62800,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="478" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>2565</v>
       </c>
@@ -62927,7 +62895,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="479" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>2570</v>
       </c>
@@ -63025,7 +62993,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="480" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>2576</v>
       </c>
@@ -63129,7 +63097,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="481" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>2581</v>
       </c>
@@ -63233,7 +63201,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="482" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>2587</v>
       </c>
@@ -63334,7 +63302,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="483" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>2592</v>
       </c>
@@ -63438,7 +63406,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="484" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>2597</v>
       </c>
@@ -63542,7 +63510,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="485" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>2602</v>
       </c>
@@ -63646,7 +63614,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="486" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>2607</v>
       </c>
@@ -63750,7 +63718,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="487" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>2611</v>
       </c>
@@ -63854,7 +63822,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="488" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>2616</v>
       </c>
@@ -63958,7 +63926,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="489" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>2622</v>
       </c>
@@ -64062,7 +64030,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="490" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>2626</v>
       </c>
@@ -64166,7 +64134,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="491" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>2632</v>
       </c>
@@ -64267,7 +64235,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="492" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>2638</v>
       </c>
@@ -64356,7 +64324,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="493" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>2643</v>
       </c>
@@ -64466,7 +64434,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="494" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>2647</v>
       </c>
@@ -64570,7 +64538,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="495" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>2652</v>
       </c>
@@ -64686,7 +64654,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="496" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>2658</v>
       </c>
@@ -64805,7 +64773,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="497" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>2663</v>
       </c>
@@ -64846,10 +64814,10 @@
         <v>1014</v>
       </c>
       <c r="P497">
-        <v>43.253356500000002</v>
+        <v>43.252497400000003</v>
       </c>
       <c r="Q497">
-        <v>-87.915470099999993</v>
+        <v>-87.916089200000002</v>
       </c>
       <c r="S497" t="s">
         <v>2655</v>
@@ -64921,7 +64889,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="498" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>2667</v>
       </c>
@@ -65037,7 +65005,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="499" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>2672</v>
       </c>
@@ -65156,7 +65124,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="500" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>2678</v>
       </c>
@@ -65197,10 +65165,10 @@
         <v>832</v>
       </c>
       <c r="P500">
-        <v>42.910396899999903</v>
+        <v>42.910383299999999</v>
       </c>
       <c r="Q500">
-        <v>-88.043904299999994</v>
+        <v>-88.044790499999905</v>
       </c>
       <c r="S500" t="s">
         <v>2655</v>
@@ -65272,7 +65240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="501" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>2683</v>
       </c>
@@ -65388,7 +65356,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="502" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>2686</v>
       </c>
@@ -65504,7 +65472,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="503" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>2689</v>
       </c>
@@ -65620,7 +65588,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="504" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>2692</v>
       </c>
@@ -65730,7 +65698,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="505" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>2699</v>
       </c>
@@ -65825,7 +65793,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="506" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>2706</v>
       </c>
@@ -65938,7 +65906,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="507" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>2712</v>
       </c>
@@ -66045,7 +66013,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="508" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>2719</v>
       </c>
@@ -66155,7 +66123,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="509" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>2725</v>
       </c>
@@ -66250,7 +66218,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="510" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>2731</v>
       </c>
@@ -66357,7 +66325,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="511" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>2735</v>
       </c>
@@ -66452,7 +66420,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="512" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>2743</v>
       </c>
@@ -66559,7 +66527,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="513" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>2749</v>
       </c>
@@ -66657,7 +66625,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="514" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>2755</v>
       </c>
@@ -66764,7 +66732,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="515" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>2761</v>
       </c>
@@ -66874,7 +66842,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="516" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>2768</v>
       </c>
@@ -66984,7 +66952,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="517" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>2773</v>
       </c>
@@ -67091,7 +67059,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="518" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>2778</v>
       </c>
@@ -67129,10 +67097,10 @@
         <v>2302</v>
       </c>
       <c r="P518">
-        <v>43.972259600000001</v>
+        <v>43.972166799999997</v>
       </c>
       <c r="Q518">
-        <v>-91.277861999999999</v>
+        <v>-91.277217899999997</v>
       </c>
       <c r="S518" t="s">
         <v>2696</v>
@@ -67186,7 +67154,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="519" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>2784</v>
       </c>
@@ -67293,7 +67261,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="520" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>2789</v>
       </c>
@@ -67388,7 +67356,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="521" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>2795</v>
       </c>
@@ -67498,7 +67466,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="522" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>2801</v>
       </c>
@@ -67539,10 +67507,10 @@
         <v>2747</v>
       </c>
       <c r="P522">
-        <v>43.579185199999998</v>
+        <v>43.5792632</v>
       </c>
       <c r="Q522">
-        <v>-90.639222099999998</v>
+        <v>-90.638703699999994</v>
       </c>
       <c r="S522" t="s">
         <v>2696</v>
@@ -67596,7 +67564,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="523" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>2806</v>
       </c>
@@ -67706,7 +67674,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="524" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>2811</v>
       </c>
@@ -67813,7 +67781,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="525" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>2817</v>
       </c>
@@ -67920,7 +67888,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="526" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>2822</v>
       </c>
@@ -68030,7 +67998,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="527" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>2827</v>
       </c>
@@ -68122,7 +68090,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="528" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>2830</v>
       </c>
@@ -68232,7 +68200,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="529" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>2835</v>
       </c>
@@ -68339,7 +68307,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="530" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>2841</v>
       </c>
@@ -68452,7 +68420,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="531" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>2845</v>
       </c>
@@ -68541,7 +68509,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="532" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>2850</v>
       </c>
@@ -68633,7 +68601,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="533" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>2854</v>
       </c>
@@ -68743,7 +68711,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="534" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>2859</v>
       </c>
@@ -68838,7 +68806,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="535" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>2867</v>
       </c>
@@ -68948,7 +68916,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="536" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>2872</v>
       </c>
@@ -69055,7 +69023,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="537" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>2878</v>
       </c>
@@ -69093,10 +69061,10 @@
         <v>186</v>
       </c>
       <c r="P537">
-        <v>43.881050500000001</v>
+        <v>43.8808984</v>
       </c>
       <c r="Q537">
-        <v>-90.131583800000001</v>
+        <v>-90.134069499999995</v>
       </c>
       <c r="S537" t="s">
         <v>2696</v>
@@ -69144,7 +69112,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="538" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>2883</v>
       </c>
@@ -69254,7 +69222,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="539" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>2887</v>
       </c>
@@ -69361,7 +69329,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="540" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>2893</v>
       </c>
@@ -69468,7 +69436,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="541" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>2898</v>
       </c>
@@ -69575,7 +69543,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="542" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>2904</v>
       </c>
@@ -69673,7 +69641,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="543" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>2909</v>
       </c>
@@ -69783,7 +69751,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="544" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>2914</v>
       </c>
@@ -69893,7 +69861,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="545" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>2919</v>
       </c>
@@ -70000,7 +69968,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="546" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>2923</v>
       </c>
@@ -70107,7 +70075,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="547" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>2928</v>
       </c>
@@ -70214,7 +70182,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="548" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>2932</v>
       </c>
@@ -70324,7 +70292,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="549" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>2937</v>
       </c>
@@ -70416,7 +70384,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="550" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>2942</v>
       </c>
@@ -70526,7 +70494,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="551" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>2947</v>
       </c>
@@ -70624,7 +70592,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="552" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>2951</v>
       </c>
@@ -70731,7 +70699,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="553" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>2956</v>
       </c>
@@ -70841,7 +70809,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="554" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>2962</v>
       </c>
@@ -70957,7 +70925,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="555" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>2966</v>
       </c>
@@ -71064,7 +71032,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="556" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>2971</v>
       </c>
@@ -71159,7 +71127,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="557" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>2975</v>
       </c>
@@ -71275,7 +71243,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="558" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>2983</v>
       </c>
@@ -71379,7 +71347,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="559" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>2988</v>
       </c>
@@ -71480,7 +71448,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="560" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>2994</v>
       </c>
@@ -71584,7 +71552,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="561" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>3000</v>
       </c>
@@ -71685,7 +71653,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="562" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>3006</v>
       </c>
@@ -71795,7 +71763,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="563" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>3010</v>
       </c>
@@ -71887,7 +71855,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="564" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>3015</v>
       </c>
@@ -71994,7 +71962,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="565" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>3020</v>
       </c>
@@ -72098,7 +72066,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="566" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>3025</v>
       </c>
@@ -72202,7 +72170,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="567" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>3030</v>
       </c>
@@ -72306,7 +72274,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="568" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>3035</v>
       </c>
@@ -72419,7 +72387,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="569" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>3039</v>
       </c>
@@ -72520,7 +72488,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="570" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>3044</v>
       </c>
@@ -72636,7 +72604,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="571" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>3049</v>
       </c>
@@ -72677,10 +72645,10 @@
         <v>3004</v>
       </c>
       <c r="P571">
-        <v>43.9625986</v>
+        <v>43.962580600000003</v>
       </c>
       <c r="Q571">
-        <v>-89.218358299999906</v>
+        <v>-89.218451199999905</v>
       </c>
       <c r="S571" t="s">
         <v>2980</v>
@@ -72734,7 +72702,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="572" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>3054</v>
       </c>
@@ -72841,7 +72809,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="573" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>3059</v>
       </c>
@@ -72945,7 +72913,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="574" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>3064</v>
       </c>
@@ -73055,7 +73023,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="575" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>3069</v>
       </c>
@@ -73171,7 +73139,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="576" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>3073</v>
       </c>
@@ -73275,7 +73243,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="577" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>3078</v>
       </c>
@@ -73376,7 +73344,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="578" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>3084</v>
       </c>
@@ -73474,7 +73442,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="579" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>3090</v>
       </c>
@@ -73578,7 +73546,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="580" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>3095</v>
       </c>
@@ -73679,7 +73647,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="581" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>3102</v>
       </c>
@@ -73789,7 +73757,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="582" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>3107</v>
       </c>
@@ -73875,7 +73843,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="583" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>3113</v>
       </c>
@@ -73979,7 +73947,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="584" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>3118</v>
       </c>
@@ -74092,7 +74060,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="585" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>3122</v>
       </c>
@@ -74202,7 +74170,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="586" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>3127</v>
       </c>
@@ -74306,7 +74274,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="587" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>3132</v>
       </c>
@@ -74407,7 +74375,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="588" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>3137</v>
       </c>
@@ -74517,7 +74485,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="589" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>3143</v>
       </c>
@@ -74627,7 +74595,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="590" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>3145</v>
       </c>
@@ -74728,7 +74696,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="591" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>3153</v>
       </c>
@@ -74823,7 +74791,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="592" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>3160</v>
       </c>
@@ -74912,7 +74880,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="593" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>3167</v>
       </c>
@@ -75007,7 +74975,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="594" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>3172</v>
       </c>
@@ -75111,7 +75079,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="595" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>3178</v>
       </c>
@@ -75221,7 +75189,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="596" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>3183</v>
       </c>
@@ -75325,7 +75293,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="597" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>3188</v>
       </c>
@@ -75429,7 +75397,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="598" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>3193</v>
       </c>
@@ -75533,7 +75501,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="599" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>3198</v>
       </c>
@@ -75637,7 +75605,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="600" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>3203</v>
       </c>
@@ -75738,7 +75706,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="601" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>3208</v>
       </c>
@@ -75842,7 +75810,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="602" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>3213</v>
       </c>
@@ -75955,7 +75923,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="603" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>3219</v>
       </c>
@@ -76071,7 +76039,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="604" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>3224</v>
       </c>
@@ -76184,7 +76152,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="605" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>3230</v>
       </c>
@@ -76297,7 +76265,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="606" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>3234</v>
       </c>
@@ -76410,7 +76378,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="607" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>3239</v>
       </c>
@@ -76523,7 +76491,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="608" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>3244</v>
       </c>
@@ -76636,7 +76604,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="609" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>3249</v>
       </c>
@@ -76734,7 +76702,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="610" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>3254</v>
       </c>
@@ -76853,7 +76821,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="611" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>3258</v>
       </c>
@@ -76957,7 +76925,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="612" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>3263</v>
       </c>
@@ -77058,7 +77026,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="613" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>3268</v>
       </c>
@@ -77174,7 +77142,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="614" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>3274</v>
       </c>
@@ -77275,7 +77243,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="615" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>3280</v>
       </c>
@@ -77376,7 +77344,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="616" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>3285</v>
       </c>
@@ -77471,7 +77439,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="617" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>3291</v>
       </c>
@@ -77572,7 +77540,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="618" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>3296</v>
       </c>
@@ -77682,7 +77650,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="619" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>3301</v>
       </c>
@@ -77783,7 +77751,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="620" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>3306</v>
       </c>
@@ -77887,7 +77855,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="621" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>3312</v>
       </c>
@@ -77991,7 +77959,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="622" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>3318</v>
       </c>
@@ -78101,7 +78069,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="623" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>3323</v>
       </c>
@@ -78205,7 +78173,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="624" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>3328</v>
       </c>
@@ -78303,7 +78271,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="625" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>3334</v>
       </c>
@@ -78404,7 +78372,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="626" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>3340</v>
       </c>
@@ -78520,7 +78488,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="627" spans="1:45" hidden="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>3342</v>
       </c>
@@ -78622,13 +78590,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS627">
-    <filterColumn colId="43">
-      <filters>
-        <filter val="ideal_region_01"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>